--- a/Deliverables/16S/WADE003-arcticpred-16Sp2-taxa-output_unresolved.xlsx
+++ b/Deliverables/16S/WADE003-arcticpred-16Sp2-taxa-output_unresolved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/16S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\16S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D729068-BE24-4F1C-8D27-39EB013F3931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE6AA3F-BD23-4BC3-BDDC-09C831FBAA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A05AFB2-1BDA-4BBA-BB27-7E8F4B570C82}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{5A05AFB2-1BDA-4BBA-BB27-7E8F4B570C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,23 +649,23 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -734,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -751,7 +751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -765,7 +765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -785,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -808,7 +808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -825,7 +825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -856,7 +856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -879,7 +879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -902,7 +902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -963,7 +963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -995,7 +995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>71</v>
       </c>
